--- a/data/trans_orig/P14A15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{249A0050-2B9B-4FC3-B974-66CAA80E0F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3C3159-F6BD-4DF2-8969-DA03DA048E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{939FC570-17F1-43EA-B968-A6181741F1A2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9798EF74-57EF-401B-890E-F14C0BB6020E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="218">
   <si>
     <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2012 (Tasa respuesta: 1,31%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>85,92%</t>
   </si>
   <si>
-    <t>42,9%</t>
+    <t>57,12%</t>
   </si>
   <si>
     <t>91,11%</t>
   </si>
   <si>
-    <t>56,02%</t>
+    <t>55,2%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -114,13 +114,13 @@
     <t>14,08%</t>
   </si>
   <si>
-    <t>57,1%</t>
+    <t>42,88%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>43,98%</t>
+    <t>44,8%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -150,49 +150,49 @@
     <t>66,35%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>71,15%</t>
   </si>
   <si>
-    <t>32,23%</t>
+    <t>26,02%</t>
   </si>
   <si>
     <t>68,3%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>33,65%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
-    <t>67,77%</t>
+    <t>73,98%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -216,7 +216,7 @@
     <t>17,65%</t>
   </si>
   <si>
-    <t>67,92%</t>
+    <t>65,28%</t>
   </si>
   <si>
     <t>66,39%</t>
@@ -225,16 +225,16 @@
     <t>33,7%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>32,08%</t>
+    <t>34,72%</t>
   </si>
   <si>
     <t>33,61%</t>
@@ -243,10 +243,10 @@
     <t>66,3%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -255,10 +255,10 @@
     <t>41,23%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
   <si>
     <t>64,76%</t>
@@ -270,19 +270,19 @@
     <t>47,71%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>35,24%</t>
@@ -294,10 +294,10 @@
     <t>52,29%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -306,79 +306,79 @@
     <t>78,78%</t>
   </si>
   <si>
-    <t>38,72%</t>
+    <t>38,97%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>58,83%</t>
+    <t>54,42%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>61,28%</t>
+    <t>61,03%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>41,17%</t>
+    <t>45,58%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -393,19 +393,19 @@
     <t>66,76%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>49,04%</t>
@@ -414,19 +414,19 @@
     <t>33,24%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -438,31 +438,31 @@
     <t>41,37%</t>
   </si>
   <si>
-    <t>81,21%</t>
+    <t>81,18%</t>
   </si>
   <si>
     <t>59,36%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>18,82%</t>
   </si>
   <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>75,05%</t>
@@ -480,7 +480,7 @@
     <t>73,67%</t>
   </si>
   <si>
-    <t>37,67%</t>
+    <t>37,25%</t>
   </si>
   <si>
     <t>24,95%</t>
@@ -498,7 +498,7 @@
     <t>26,33%</t>
   </si>
   <si>
-    <t>62,33%</t>
+    <t>62,75%</t>
   </si>
   <si>
     <t>55,17%</t>
@@ -507,12 +507,18 @@
     <t>44,88%</t>
   </si>
   <si>
+    <t>83,36%</t>
+  </si>
+  <si>
     <t>44,83%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
+    <t>16,64%</t>
+  </si>
+  <si>
     <t>83,77%</t>
   </si>
   <si>
@@ -555,10 +561,10 @@
     <t>63,85%</t>
   </si>
   <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>61,19%</t>
@@ -579,112 +585,112 @@
     <t>36,15%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
   </si>
   <si>
     <t>84,43%</t>
   </si>
   <si>
-    <t>51,74%</t>
+    <t>52,02%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
     <t>66,5%</t>
   </si>
   <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>33,5%</t>
   </si>
   <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B3F5F8-233E-4387-8586-C0E70C8DF59F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FA4D8B-6E3D-4F9B-A4D0-EA08CF9654DC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2609,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB03920-2B94-4EE8-8259-EF07798F476B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F49E35-2F57-489A-A042-1D6C1876A725}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3389,7 +3395,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3425,7 @@
         <v>1736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
@@ -3434,10 +3440,10 @@
         <v>2624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>14</v>
@@ -3523,10 +3529,10 @@
         <v>5225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3538,10 +3544,10 @@
         <v>6017</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3574,13 +3580,13 @@
         <v>1012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3589,13 +3595,13 @@
         <v>1012</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3669,13 @@
         <v>3048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3678,10 +3684,10 @@
         <v>9277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3693,13 +3699,13 @@
         <v>12326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3720,13 @@
         <v>4806</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3729,13 +3735,13 @@
         <v>2172</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3744,13 +3750,13 @@
         <v>6977</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,10 +3824,10 @@
         <v>11213</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3833,13 +3839,13 @@
         <v>12673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -3848,13 +3854,13 @@
         <v>23886</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3875,13 @@
         <v>2068</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3884,13 +3890,13 @@
         <v>3062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3899,13 +3905,13 @@
         <v>5129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3979,13 @@
         <v>22911</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -3988,13 +3994,13 @@
         <v>44337</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -4003,13 +4009,13 @@
         <v>67248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4030,13 @@
         <v>12550</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4039,13 +4045,13 @@
         <v>12106</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -4054,13 +4060,13 @@
         <v>24655</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A15-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3C3159-F6BD-4DF2-8969-DA03DA048E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85DA2321-463D-44A1-B510-7F91DDC6AE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9798EF74-57EF-401B-890E-F14C0BB6020E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54E053BD-1DAE-4524-B96D-7A8C787EEEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="214">
   <si>
     <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2012 (Tasa respuesta: 1,31%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>85,92%</t>
   </si>
   <si>
-    <t>57,12%</t>
+    <t>42,86%</t>
   </si>
   <si>
     <t>91,11%</t>
   </si>
   <si>
-    <t>55,2%</t>
+    <t>56,31%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -114,13 +114,13 @@
     <t>14,08%</t>
   </si>
   <si>
-    <t>42,88%</t>
+    <t>57,14%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>44,8%</t>
+    <t>43,69%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -150,49 +150,49 @@
     <t>66,35%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>71,15%</t>
   </si>
   <si>
-    <t>26,02%</t>
+    <t>32,12%</t>
   </si>
   <si>
     <t>68,3%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>33,65%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
-    <t>73,98%</t>
+    <t>67,88%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -228,7 +228,7 @@
     <t>10,48%</t>
   </si>
   <si>
-    <t>67,57%</t>
+    <t>67,34%</t>
   </si>
   <si>
     <t>82,35%</t>
@@ -243,7 +243,7 @@
     <t>66,3%</t>
   </si>
   <si>
-    <t>32,43%</t>
+    <t>32,66%</t>
   </si>
   <si>
     <t>89,52%</t>
@@ -255,49 +255,49 @@
     <t>41,23%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>64,76%</t>
   </si>
   <si>
-    <t>15,88%</t>
+    <t>16,08%</t>
   </si>
   <si>
     <t>47,71%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
   </si>
   <si>
     <t>35,24%</t>
   </si>
   <si>
-    <t>84,12%</t>
+    <t>83,92%</t>
   </si>
   <si>
     <t>52,29%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -306,85 +306,85 @@
     <t>78,78%</t>
   </si>
   <si>
-    <t>38,97%</t>
+    <t>38,63%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>54,42%</t>
+    <t>55,69%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>61,03%</t>
+    <t>61,37%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>45,58%</t>
+    <t>44,31%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>50,96%</t>
@@ -393,19 +393,19 @@
     <t>66,76%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>49,04%</t>
@@ -414,19 +414,19 @@
     <t>33,24%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -438,67 +438,61 @@
     <t>41,37%</t>
   </si>
   <si>
-    <t>81,18%</t>
+    <t>81,15%</t>
   </si>
   <si>
     <t>59,36%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>18,82%</t>
+    <t>18,85%</t>
   </si>
   <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>15,89%</t>
+    <t>16,98%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
     <t>73,67%</t>
   </si>
   <si>
-    <t>37,25%</t>
+    <t>36,54%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>84,11%</t>
+    <t>83,02%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>62,75%</t>
+    <t>63,46%</t>
   </si>
   <si>
     <t>55,17%</t>
@@ -522,175 +516,169 @@
     <t>83,77%</t>
   </si>
   <si>
-    <t>32,31%</t>
+    <t>31,47%</t>
   </si>
   <si>
     <t>85,6%</t>
   </si>
   <si>
-    <t>40,65%</t>
+    <t>34,69%</t>
   </si>
   <si>
     <t>16,23%</t>
   </si>
   <si>
-    <t>67,69%</t>
+    <t>68,53%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>59,35%</t>
+    <t>65,31%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>49,21%</t>
+    <t>49,75%</t>
   </si>
   <si>
     <t>63,85%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>50,79%</t>
+    <t>50,25%</t>
   </si>
   <si>
     <t>36,15%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>84,43%</t>
   </si>
   <si>
-    <t>52,02%</t>
+    <t>51,99%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>56,22%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>15,57%</t>
   </si>
   <si>
-    <t>47,98%</t>
+    <t>48,01%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
+    <t>43,78%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FA4D8B-6E3D-4F9B-A4D0-EA08CF9654DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB8A13E-5292-483C-8D1A-4AD41737A70C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2615,7 +2603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F49E35-2F57-489A-A042-1D6C1876A725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D306A92-F2C4-4437-BD16-5FEEDF8D9A40}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,7 +3210,7 @@
         <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3234,10 +3222,10 @@
         <v>7075</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3255,13 +3243,13 @@
         <v>1324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3270,13 +3258,13 @@
         <v>1205</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3285,13 +3273,13 @@
         <v>2529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,7 +3362,7 @@
         <v>2136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>21</v>
@@ -3389,13 +3377,13 @@
         <v>2136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3413,7 @@
         <v>1736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
@@ -3440,10 +3428,10 @@
         <v>2624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>14</v>
@@ -3529,10 +3517,10 @@
         <v>5225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3544,10 +3532,10 @@
         <v>6017</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3580,13 +3568,13 @@
         <v>1012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3595,13 +3583,13 @@
         <v>1012</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3657,13 @@
         <v>3048</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3684,10 +3672,10 @@
         <v>9277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3699,13 +3687,13 @@
         <v>12326</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3708,13 @@
         <v>4806</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3735,13 +3723,13 @@
         <v>2172</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3750,13 +3738,13 @@
         <v>6977</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,10 +3812,10 @@
         <v>11213</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3839,13 +3827,13 @@
         <v>12673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -3854,13 +3842,13 @@
         <v>23886</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3863,13 @@
         <v>2068</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3890,13 +3878,13 @@
         <v>3062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3905,13 +3893,13 @@
         <v>5129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3967,13 @@
         <v>22911</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -3994,13 +3982,13 @@
         <v>44337</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -4009,13 +3997,13 @@
         <v>67248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4018,13 @@
         <v>12550</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4045,13 +4033,13 @@
         <v>12106</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -4060,13 +4048,13 @@
         <v>24655</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
